--- a/chapters/ch09-Agriculture/datasets/Energy Flow in the US Food System.xlsx
+++ b/chapters/ch09-Agriculture/datasets/Energy Flow in the US Food System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch09-Agriculture/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38504684-67C4-0541-ABB7-DA450647A0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B7DA38-8269-744B-9BC6-A27049ADEC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8380" yWindow="820" windowWidth="28920" windowHeight="24820" xr2:uid="{E5BEA42B-B012-4EC3-A8FA-62205E68D6FA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Energy Flow in the US Food System</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Consumed energy [quads]</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -504,6 +507,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>

--- a/chapters/ch09-Agriculture/datasets/Energy Flow in the US Food System.xlsx
+++ b/chapters/ch09-Agriculture/datasets/Energy Flow in the US Food System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch09-Agriculture/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B7DA38-8269-744B-9BC6-A27049ADEC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B962D8-75D7-4E45-80DF-502D40350008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="820" windowWidth="28920" windowHeight="24820" xr2:uid="{E5BEA42B-B012-4EC3-A8FA-62205E68D6FA}"/>
+    <workbookView xWindow="6920" yWindow="500" windowWidth="28920" windowHeight="21900" activeTab="1" xr2:uid="{E5BEA42B-B012-4EC3-A8FA-62205E68D6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -71,19 +73,19 @@
     <t>Food services</t>
   </si>
   <si>
-    <t>Household storage &amp; preparation</t>
-  </si>
-  <si>
     <t>Wholesale &amp; retail</t>
   </si>
   <si>
-    <t>Input energy [Quads]</t>
-  </si>
-  <si>
     <t>Consumed energy [quads]</t>
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Input energy [quads]</t>
+  </si>
+  <si>
+    <t>Household storage &amp; prep</t>
   </si>
 </sst>
 </file>
@@ -497,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD225E6-27F0-334F-A033-B16CEC50974B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,13 +510,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -580,7 +582,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>Sheet1!A10</f>
-        <v>Household storage &amp; preparation</v>
+        <v>Household storage &amp; prep</v>
       </c>
       <c r="B8">
         <f>Sheet1!C10</f>
@@ -616,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F24A44-8AB6-4906-BA86-69CACB86B0F1}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -689,7 +691,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>0.16</v>
@@ -716,7 +718,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>0.28000000000000003</v>
